--- a/data/trans_bre/P1432-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1432-Estudios-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.619258756198147</v>
+        <v>-0.6069282116094483</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.912705516590878</v>
+        <v>0.8081122604741163</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4247991376948472</v>
+        <v>0.4391025171059035</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2002113436308525</v>
+        <v>-0.2096401413478918</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2783907491228034</v>
+        <v>0.3301986577808162</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1308769198699864</v>
+        <v>0.1610375328414776</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.157400742574271</v>
+        <v>2.042249823461527</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.491573952923591</v>
+        <v>3.463922348501635</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.508408712038832</v>
+        <v>3.404299922000985</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.253992396538295</v>
+        <v>1.248410455723447</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.858136673536461</v>
+        <v>3.693807325505838</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.535767635232149</v>
+        <v>3.196743807439941</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2874934407460863</v>
+        <v>-0.2718522331516735</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.5399312896325584</v>
+        <v>-0.5606738806730034</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1544485836620017</v>
+        <v>0.1549445344089863</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5745687203363797</v>
+        <v>-0.6200465538299843</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7794786707163306</v>
+        <v>-0.8119340408565957</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06605636562115118</v>
+        <v>0.1247349523672224</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6658939073656162</v>
+        <v>0.6363563878393624</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3408738210089154</v>
+        <v>0.3444591548316849</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.049242166082075</v>
+        <v>1.086006065012836</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.943269336294982</v>
+        <v>3.460469480689909</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.037011043402689</v>
+        <v>1.884556224438467</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>10.21614293994397</v>
+        <v>9.839465362689428</v>
       </c>
     </row>
     <row r="10">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.399559411460652</v>
+        <v>-2.274965137267594</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2118481917471251</v>
+        <v>0.2143882913028063</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1654247606329368</v>
+        <v>-0.1933755556117879</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
@@ -824,13 +824,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.1894731223508188</v>
+        <v>-0.1912178961198696</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.840883483260342</v>
+        <v>2.034715655829894</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.267285402663696</v>
+        <v>1.303608148984758</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
@@ -874,22 +874,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.1255772472221171</v>
+        <v>-0.2157742994308977</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4692339367105142</v>
+        <v>0.459478309221201</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4910758452874565</v>
+        <v>0.4905944218185134</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.09260272553282041</v>
+        <v>-0.1582748550470676</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4514860464732265</v>
+        <v>0.4220640561775664</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6922706941804587</v>
+        <v>0.6280553222772469</v>
       </c>
     </row>
     <row r="15">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.035094881563533</v>
+        <v>0.9626595356493307</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.47255217759229</v>
+        <v>1.509227379480796</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.422019737762813</v>
+        <v>1.491359185665377</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.212092442221403</v>
+        <v>1.068432436572221</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.184340212017654</v>
+        <v>3.382347076105956</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.0199364379091</v>
+        <v>4.211564231261023</v>
       </c>
     </row>
     <row r="16">
